--- a/jupyter_notebooks/template.xlsx
+++ b/jupyter_notebooks/template.xlsx
@@ -8,26 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mn6461\Documents\GitHub\reXplan-repo\jupyter_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAE65A-8557-4C5A-835C-1B533AA83E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3DD40-73C3-4DAF-95A7-B8146BE5F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="704" firstSheet="9" activeTab="12" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-25320" yWindow="-8940" windowWidth="25440" windowHeight="15390" tabRatio="704" firstSheet="3" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="loads" sheetId="8" r:id="rId2"/>
-    <sheet name="generators" sheetId="2" r:id="rId3"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId4"/>
-    <sheet name="lines" sheetId="4" r:id="rId5"/>
-    <sheet name="transformers" sheetId="3" r:id="rId6"/>
-    <sheet name="cost" sheetId="10" r:id="rId7"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId8"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId9"/>
-    <sheet name="simulation" sheetId="12" r:id="rId10"/>
-    <sheet name="profiles" sheetId="11" r:id="rId11"/>
-    <sheet name="network" sheetId="5" r:id="rId12"/>
-    <sheet name="switches" sheetId="14" r:id="rId13"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId3"/>
+    <sheet name="generators" sheetId="2" r:id="rId4"/>
+    <sheet name="static_generators" sheetId="16" r:id="rId5"/>
+    <sheet name="lines" sheetId="4" r:id="rId6"/>
+    <sheet name="transformers" sheetId="3" r:id="rId7"/>
+    <sheet name="cost" sheetId="10" r:id="rId8"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId9"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId10"/>
+    <sheet name="simulation" sheetId="12" r:id="rId11"/>
+    <sheet name="profiles" sheetId="11" r:id="rId12"/>
+    <sheet name="network" sheetId="5" r:id="rId13"/>
     <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="switches" sheetId="14" r:id="rId15"/>
+    <sheet name="motor" sheetId="15" r:id="rId16"/>
+    <sheet name="asym_static_generators" sheetId="17" r:id="rId17"/>
+    <sheet name="transformers_3w" sheetId="18" r:id="rId18"/>
+    <sheet name="shunt" sheetId="19" r:id="rId19"/>
+    <sheet name="impedance" sheetId="20" r:id="rId20"/>
+    <sheet name="ward" sheetId="21" r:id="rId21"/>
+    <sheet name="extended_ward" sheetId="22" r:id="rId22"/>
+    <sheet name="asym_load" sheetId="23" r:id="rId23"/>
+    <sheet name="controller" sheetId="24" r:id="rId24"/>
+    <sheet name="storage" sheetId="25" r:id="rId25"/>
+    <sheet name="dc_line" sheetId="26" r:id="rId26"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">static_generators!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,188 +63,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoffmann Tim</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9AE4FF79-A943-4DCA-8EEC-94F6D2192459}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-in Hours;
-average TTR, either 3 days or 15, depending on voltage range
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{05139708-20B4-4E04-A3E3-2B3898ECAF86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Imaginary nodes, for modeling purposes, represented in line_data; Line 31, Line 30</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{298BDD65-542C-4FA4-B85B-75472802622A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Extra non-exsistent busses to avoid parallel line to transformer.
-Example:
-TR1 inbetween bus29 and bus30</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoffmann Tim</author>
-  </authors>
-  <commentList>
-    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{4754DB1D-C3C2-484D-897E-8C7ABCF8EF13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Don't matter for those without fragility curve
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{CA84ED74-880F-4F62-A7D9-2E7F406F47E6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-EXCEPT 6&amp;7 !!!
-Time in Hours!!</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoffmann Tim</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{14A24C36-2AAE-4E83-8CDC-DF6EEC14737D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Extra non-exsistent busses to avoid parallel line to transformer.
-Example:
-TR1 inbetween bus29 and bus30</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hoffmann Tim</author>
@@ -264,67 +97,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoffmann Tim</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{082DA40F-D37B-4EA2-8EF6-9AFC7A54264C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-for 160kVA Transformers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{A16BC99F-3C99-44BC-9F37-16C4E529A295}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hoffmann Tim:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-For smaller transformers, 100k
-VA</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
   <si>
     <t>name</t>
   </si>
@@ -629,12 +403,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>associated elements</t>
-  </si>
-  <si>
-    <t>ignore montecarlo</t>
-  </si>
-  <si>
     <t>return_period</t>
   </si>
   <si>
@@ -678,6 +446,198 @@
   </si>
   <si>
     <t>hazard duration</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>pn_mech_mw</t>
+  </si>
+  <si>
+    <t>loading_percent</t>
+  </si>
+  <si>
+    <t>cos_phi_n</t>
+  </si>
+  <si>
+    <t>efficiency_percent</t>
+  </si>
+  <si>
+    <t>efficiency_n_percent</t>
+  </si>
+  <si>
+    <t>lrc_pu</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>current_source</t>
+  </si>
+  <si>
+    <t>01.01.202200:00:00</t>
+  </si>
+  <si>
+    <t>05.01.202200:00:00</t>
+  </si>
+  <si>
+    <t>associatedelements</t>
+  </si>
+  <si>
+    <t>ignoremontecarlo</t>
+  </si>
+  <si>
+    <t>p_a_mw</t>
+  </si>
+  <si>
+    <t>q_a_mvar</t>
+  </si>
+  <si>
+    <t>p_b_mw</t>
+  </si>
+  <si>
+    <t>q_b_mvar</t>
+  </si>
+  <si>
+    <t>p_c_mw</t>
+  </si>
+  <si>
+    <t>q_c_mvar</t>
+  </si>
+  <si>
+    <t>std_type</t>
+  </si>
+  <si>
+    <t>hv_bus</t>
+  </si>
+  <si>
+    <t>mv_bus</t>
+  </si>
+  <si>
+    <t>lv_bus</t>
+  </si>
+  <si>
+    <t>sn_hv_mva</t>
+  </si>
+  <si>
+    <t>sn_mv_mva</t>
+  </si>
+  <si>
+    <t>sn_lv_mva</t>
+  </si>
+  <si>
+    <t>vn_mv_kv</t>
+  </si>
+  <si>
+    <t>vk_hv_percent</t>
+  </si>
+  <si>
+    <t>vk_mv_percent</t>
+  </si>
+  <si>
+    <t>vk_lv_percent</t>
+  </si>
+  <si>
+    <t>vkr_hv_percent</t>
+  </si>
+  <si>
+    <t>vkr_mv_percent</t>
+  </si>
+  <si>
+    <t>vkr_lv_percent</t>
+  </si>
+  <si>
+    <t>shift_mv_degree</t>
+  </si>
+  <si>
+    <t>shift_lv_degree</t>
+  </si>
+  <si>
+    <t>tap_at_star_point</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>max_step</t>
+  </si>
+  <si>
+    <t>rft_pu</t>
+  </si>
+  <si>
+    <t>xft_pu</t>
+  </si>
+  <si>
+    <t>rtf_pu</t>
+  </si>
+  <si>
+    <t>xtf_pu</t>
+  </si>
+  <si>
+    <t>ps_mw</t>
+  </si>
+  <si>
+    <t>qs_mvar</t>
+  </si>
+  <si>
+    <t>qz_mvar</t>
+  </si>
+  <si>
+    <t>pz_mw</t>
+  </si>
+  <si>
+    <t>r_ohm</t>
+  </si>
+  <si>
+    <t>x_ohm</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>initial_run</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>soc_percent</t>
+  </si>
+  <si>
+    <t>min_e_mwh</t>
+  </si>
+  <si>
+    <t>max_e_mwh</t>
+  </si>
+  <si>
+    <t>loss_percent</t>
+  </si>
+  <si>
+    <t>loss_mw</t>
+  </si>
+  <si>
+    <t>vm_from_pu</t>
+  </si>
+  <si>
+    <t>vm_to_pu</t>
+  </si>
+  <si>
+    <t>min_q_from_mvar</t>
+  </si>
+  <si>
+    <t>min_q_to_mvar</t>
+  </si>
+  <si>
+    <t>max_q_from_mvar</t>
+  </si>
+  <si>
+    <t>max_q_to_mvar</t>
+  </si>
+  <si>
+    <t>crew_1</t>
   </si>
 </sst>
 </file>
@@ -687,7 +647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,13 +665,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,17 +690,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -759,9 +707,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -771,11 +718,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1053,230 +999,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="6"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I51" s="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7CE9D1-E831-4D14-93C0-93FEACE3FE30}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,22 +1325,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44562</v>
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -1324,22 +1349,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44566</v>
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1351,12 +1376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:P410"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:K5"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,40 +1405,40 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>88</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2694,17 +2719,14 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA953899-A875-4BB7-A409-7D4BE32C59E8}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2724,12 +2746,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F048EE5-6CF5-4D91-BE31-E59CF33F6687}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,33 +2793,33 @@
     <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
+      <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2822,27 +2874,265 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1D61BE-4337-4EF4-B8C4-8078E7157C93}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41B9275-2952-4BCC-9DF3-9FD65D058257}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF2714-9D35-437B-88AE-B8D297230EA2}">
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99022965-27E2-4531-9CCF-93AA6A9F8BB3}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2851,7 +3141,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+      <selection activeCell="P18" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,12 +3269,438 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF6BB74-E5CD-434A-86CA-38F64AFAC395}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2E23F-D75D-4E0E-9AAF-DC87A20E53F9}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4CCD35-7FFB-4C28-99A6-168BD4B12143}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB369B-24B3-4EEF-9239-342495CF5B45}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC306D-C05E-4544-A27D-57AFB24EDAD5}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDEEDAA-1FA3-4DEC-947E-B8AEAE816572}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C37A3A-74E3-4E0B-A5CE-288DDCB52B1D}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3018,87 +3734,87 @@
     <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" t="s">
-        <v>103</v>
+      <c r="AA1" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -3114,114 +3830,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
-  <dimension ref="A1:S33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5805D2CF-3BDB-4C97-982C-CF71626DB0FB}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3246,63 +3923,63 @@
     <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
-        <v>103</v>
+      <c r="S1" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -3316,106 +3993,20 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="B29:C34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3434,45 +4025,45 @@
     <col min="12" max="12" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
-        <v>103</v>
+      <c r="M1" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3518,7 +4109,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
@@ -3536,16 +4127,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03625BB4-D62C-4FF6-AAD9-1E9790CBA541}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3560,29 +4150,29 @@
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3592,12 +4182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3614,38 +4204,38 @@
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3656,89 +4246,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/jupyter_notebooks/template.xlsx
+++ b/jupyter_notebooks/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mn6461\Documents\GitHub\reXplan-repo\jupyter_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3DD40-73C3-4DAF-95A7-B8146BE5F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E286714-01A2-41A3-88AC-49C111D80AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-8940" windowWidth="25440" windowHeight="15390" tabRatio="704" firstSheet="3" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="10" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -475,12 +475,6 @@
     <t>current_source</t>
   </si>
   <si>
-    <t>01.01.202200:00:00</t>
-  </si>
-  <si>
-    <t>05.01.202200:00:00</t>
-  </si>
-  <si>
     <t>associatedelements</t>
   </si>
   <si>
@@ -638,6 +632,9 @@
   </si>
   <si>
     <t>crew_1</t>
+  </si>
+  <si>
+    <t>05.01.202 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1000,211 +997,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H51" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7CE9D1-E831-4D14-93C0-93FEACE3FE30}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,8 +1328,8 @@
       <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>125</v>
+      <c r="C2" s="3">
+        <v>44562</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1355,7 +1353,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2750,7 +2748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -2767,7 +2765,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2816,10 +2814,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2952,22 +2950,22 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3005,52 +3003,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
       </c>
       <c r="I1" t="s">
         <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>146</v>
-      </c>
-      <c r="P1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>148</v>
       </c>
       <c r="R1" t="s">
         <v>39</v>
@@ -3059,10 +3057,10 @@
         <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
         <v>42</v>
@@ -3086,7 +3084,7 @@
         <v>50</v>
       </c>
       <c r="AC1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -3122,10 +3120,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -3290,16 +3288,16 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" t="s">
-        <v>157</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -3331,16 +3329,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -3369,22 +3367,22 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>63</v>
@@ -3419,22 +3417,22 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3470,16 +3468,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3514,13 +3512,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
       </c>
       <c r="I1" t="s">
         <v>60</v>
@@ -3561,31 +3559,31 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>172</v>
-      </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" t="s">
-        <v>174</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
       <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" t="s">
         <v>175</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" t="s">
-        <v>178</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>

--- a/jupyter_notebooks/template.xlsx
+++ b/jupyter_notebooks/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mn6461\Documents\GitHub\reXplan-repo\jupyter_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E286714-01A2-41A3-88AC-49C111D80AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F30141-5F46-4937-85BE-585446A7A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="10" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>crew_1</t>
-  </si>
-  <si>
-    <t>05.01.202 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1296,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1326,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="3">
-        <v>44562</v>
+        <v>44562.041666666664</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1341,7 +1338,7 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1352,8 +1349,8 @@
       <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>178</v>
+      <c r="C4" s="3">
+        <v>44562.5</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1365,7 +1362,7 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter_notebooks/template.xlsx
+++ b/jupyter_notebooks/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mn6461\Documents\GitHub\reXplan-repo\jupyter_notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F30141-5F46-4937-85BE-585446A7A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F2F30141-5F46-4937-85BE-585446A7A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717391F3-F426-4378-9528-11298C874AFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="10" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="704" firstSheet="4" activeTab="11" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7CE9D1-E831-4D14-93C0-93FEACE3FE30}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1326,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="3">
-        <v>44562.041666666664</v>
+        <v>44562</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1350,7 +1350,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="3">
-        <v>44562.5</v>
+        <v>44562.166666666664</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:P410"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1487,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>44562</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>

--- a/jupyter_notebooks/template.xlsx
+++ b/jupyter_notebooks/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\reXplan-repo\jupyter_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F2F30141-5F46-4937-85BE-585446A7A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717391F3-F426-4378-9528-11298C874AFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A4470C-BEB7-491A-BABE-03635E704955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="704" firstSheet="4" activeTab="11" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="704" activeTab="10" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,21 +998,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1050,155 +1050,155 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="2"/>
     </row>
   </sheetData>
@@ -1216,27 +1216,27 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1295,19 +1295,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7CE9D1-E831-4D14-93C0-93FEACE3FE30}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1326,11 +1326,11 @@
         <v>111</v>
       </c>
       <c r="C2" s="3">
-        <v>44562</v>
+        <v>45658</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1338,11 +1338,11 @@
         <v>113</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -1350,11 +1350,11 @@
         <v>111</v>
       </c>
       <c r="C4" s="3">
-        <v>44562.166666666664</v>
+        <v>45658</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1375,18 +1375,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:P410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1486,1230 +1486,1230 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
     </row>
   </sheetData>
@@ -2725,9 +2725,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2751,18 +2751,18 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2781,16 +2781,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2819,50 +2819,50 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -2879,13 +2879,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2939,9 +2939,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2995,9 +2995,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3100,9 +3100,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3141,27 +3141,27 @@
       <selection activeCell="P18" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3214,49 +3214,49 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O16" s="2"/>
     </row>
   </sheetData>
@@ -3274,9 +3274,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3318,9 +3318,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3356,9 +3356,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3406,9 +3406,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3457,9 +3457,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -3492,9 +3492,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3542,9 +3542,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3601,28 +3601,28 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3675,15 +3675,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="V4" s="2"/>
     </row>
@@ -3700,38 +3700,38 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3814,15 +3814,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H4" s="2"/>
     </row>
   </sheetData>
@@ -3839,9 +3839,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3898,29 +3898,29 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3979,16 +3979,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
   </sheetData>
@@ -4006,23 +4006,23 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4063,62 +4063,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
     </row>
   </sheetData>
@@ -4135,19 +4135,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4187,21 +4187,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
   </sheetData>
